--- a/stock_historical_data/1wk/WELENT.NS.xlsx
+++ b/stock_historical_data/1wk/WELENT.NS.xlsx
@@ -57757,7 +57757,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/WELENT.NS.xlsx
+++ b/stock_historical_data/1wk/WELENT.NS.xlsx
@@ -54739,7 +54739,9 @@
       <c r="P1024" t="n">
         <v>0</v>
       </c>
-      <c r="Q1024" t="inlineStr"/>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/WELENT.NS.xlsx
+++ b/stock_historical_data/1wk/WELENT.NS.xlsx
@@ -57869,7 +57869,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/WELENT.NS.xlsx
+++ b/stock_historical_data/1wk/WELENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1025"/>
+  <dimension ref="A1:R1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57873,6 +57873,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>459.75</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>466.3999938964844</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>448.1000061035156</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>452.3999938964844</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>452.3999938964844</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>962578</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>452.3999938964844</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>478.2999877929688</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>431.8500061035156</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>449.1499938964844</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>449.1499938964844</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>2127079</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/WELENT.NS.xlsx
+++ b/stock_historical_data/1wk/WELENT.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1027"/>
+  <dimension ref="A1:R1062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -57925,7 +57925,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57979,7 +57981,1829 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>443.389185488665</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>487.961656512868</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>443.2401197652529</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>483.1416625976562</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>1586354</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>483.1499938964844</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>540.7999877929688</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>473.0499877929688</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>498.2000122070312</v>
+      </c>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="n">
+        <v>3165903</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>498.7999877929688</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>508.3999938964844</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>462.2000122070312</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>464.6000061035156</v>
+      </c>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="n">
+        <v>740221</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>462</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>538</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>454</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>530.4500122070312</v>
+      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="n">
+        <v>1554201</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>531.5499877929688</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>577</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>525.0499877929688</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>559.2000122070312</v>
+      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="n">
+        <v>2058291</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>549</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>579.9500122070312</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>525.0499877929688</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>555.1500244140625</v>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="n">
+        <v>2413611</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>548.9000244140625</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>589.0499877929688</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>540.1500244140625</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>560.5499877929688</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>2511505</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>565.75</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>610</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>550</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>2161763</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>610.7999877929688</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>619</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>577</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>587.7000122070312</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>3554953</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>590.6500244140625</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>595.2000122070312</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>542.0999755859375</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>545.2999877929688</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>1594765</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>542.9000244140625</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>595.8499755859375</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>531.7999877929688</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>585.9000244140625</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>1653011</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>590.4500122070312</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>598.5999755859375</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>565</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>572.0999755859375</v>
+      </c>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="n">
+        <v>803857</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>574.0499877929688</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>592.5499877929688</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>552.0999755859375</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>557.25</v>
+      </c>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="n">
+        <v>1022310</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>587</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>540.2000122070312</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>542.1500244140625</v>
+      </c>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="n">
+        <v>1888052</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>540.1500244140625</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>569</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>509.2999877929688</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>557.3499755859375</v>
+      </c>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="n">
+        <v>1366009</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>561</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>566.6500244140625</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>535.0499877929688</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>556.6500244140625</v>
+      </c>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="n">
+        <v>813355</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>569.2000122070312</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>496.8500061035156</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>498.1000061035156</v>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="n">
+        <v>1680128</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>499.9500122070312</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>518</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>469.0499877929688</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>498.5499877929688</v>
+      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="n">
+        <v>2060606</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>498</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>507.7000122070312</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>472.8500061035156</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>484.8999938964844</v>
+      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="n">
+        <v>825072</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>480</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>490.2999877929688</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>453.0499877929688</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>458.1000061035156</v>
+      </c>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="n">
+        <v>899276</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>453</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>466.75</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>442.1000061035156</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>458.3500061035156</v>
+      </c>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="n">
+        <v>614149</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>534.5999755859375</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>467</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>532.5</v>
+      </c>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="n">
+        <v>1845283</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>533.9000244140625</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>572.2000122070312</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>526.0499877929688</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>569</v>
+      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="n">
+        <v>1683801</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>575</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>562.4000244140625</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>581.9000244140625</v>
+      </c>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="n">
+        <v>1255917</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>581.4500122070312</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>594.7000122070312</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>567.7999877929688</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>575.9500122070312</v>
+      </c>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="n">
+        <v>1192887</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>570</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>626.6500244140625</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>561.5</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>600.2999877929688</v>
+      </c>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="n">
+        <v>2494397</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>602.6500244140625</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>653.4500122070312</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>593.4000244140625</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>639.25</v>
+      </c>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="n">
+        <v>2264394</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>645</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>655</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>599.9500122070312</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>604.25</v>
+      </c>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="n">
+        <v>1437163</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>590</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>629.7000122070312</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>582.0499877929688</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>612.7000122070312</v>
+      </c>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="n">
+        <v>997708</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>613</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>618.2000122070312</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>541.5</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>591.0499877929688</v>
+      </c>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="n">
+        <v>1183994</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>590</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>630.2000122070312</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>570.0499877929688</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>603.75</v>
+      </c>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="n">
+        <v>2265975</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>596.1500244140625</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>613.4000244140625</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>528.2000122070312</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>580.5999755859375</v>
+      </c>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="n">
+        <v>5219036</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>535</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>573</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>491.1000061035156</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>494.6499938964844</v>
+      </c>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="n">
+        <v>1866757</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>490</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>505.6000061035156</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>442</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>461.75</v>
+      </c>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="n">
+        <v>2567762</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>460</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>460</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>400.0499877929688</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>417.3999938964844</v>
+      </c>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="n">
+        <v>1267142</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/WELENT.NS.xlsx
+++ b/stock_historical_data/1wk/WELENT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1062"/>
+  <dimension ref="A1:R1066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58035,7 +58035,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -58087,7 +58089,9 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -58139,7 +58143,9 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -58191,7 +58197,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -58243,7 +58251,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58295,7 +58305,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58347,7 +58359,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58399,7 +58413,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58451,7 +58467,9 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58503,7 +58521,9 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
@@ -58555,7 +58575,9 @@
       <c r="Q1038" t="n">
         <v>0</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
@@ -58607,7 +58629,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58659,7 +58683,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58711,7 +58737,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58763,7 +58791,9 @@
       <c r="Q1042" t="n">
         <v>2</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58815,7 +58845,9 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
@@ -58867,7 +58899,9 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
@@ -58919,7 +58953,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -58971,7 +59007,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -59023,7 +59061,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59075,7 +59115,9 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59127,7 +59169,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59179,7 +59223,9 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59231,7 +59277,9 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59283,7 +59331,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59335,7 +59385,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59387,7 +59439,9 @@
       <c r="Q1054" t="n">
         <v>1</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59439,7 +59493,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59491,7 +59547,9 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
@@ -59543,7 +59601,9 @@
       <c r="Q1057" t="n">
         <v>0</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
@@ -59595,7 +59655,9 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
@@ -59647,7 +59709,9 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
@@ -59699,7 +59763,9 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59751,7 +59817,9 @@
       <c r="Q1061" t="n">
         <v>2</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59803,7 +59871,217 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>423</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>455.2000122070312</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>403.0499877929688</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="n">
+        <v>901233</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>472.8999938964844</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>415.4500122070312</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>453.2000122070312</v>
+      </c>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="n">
+        <v>800344</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>454.2999877929688</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>500</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>440.6000061035156</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="n">
+        <v>731697</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>504.6499938964844</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>529.0999755859375</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>477.8999938964844</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>483.1499938964844</v>
+      </c>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="n">
+        <v>1140066</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
